--- a/doc/04_機能一覧_チーム名_持ちつ持たれつ.xlsx
+++ b/doc/04_機能一覧_チーム名_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5957AD5C-9176-4DF8-9DF9-71B0FA4D070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8BA6CC-0114-4D79-A542-0B2C5001A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1155" windowWidth="15645" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="585" windowWidth="15645" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -193,24 +193,6 @@
   </si>
   <si>
     <t>メニュー表示へ飛ぶ</t>
-  </si>
-  <si>
-    <t>検索一覧表示へのURL</t>
-  </si>
-  <si>
-    <t>検索一覧表示へ飛ぶ</t>
-  </si>
-  <si>
-    <t>コーディネート登録へのURL</t>
-  </si>
-  <si>
-    <t>コーディネート登録へ飛ぶ</t>
-  </si>
-  <si>
-    <t>アイテム登録へのURL</t>
-  </si>
-  <si>
-    <t>アイテム登録へ飛ぶ</t>
   </si>
   <si>
     <t>ロゴ</t>
@@ -459,14 +441,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,7 +791,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -827,42 +809,42 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="H2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -900,21 +882,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -922,21 +904,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -944,21 +926,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -966,21 +948,21 @@
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -988,21 +970,21 @@
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -1010,21 +992,21 @@
         <v>6</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -1032,21 +1014,21 @@
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -1054,21 +1036,21 @@
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -1076,21 +1058,19 @@
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
@@ -1098,21 +1078,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>44</v>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -1120,21 +1098,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>44</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -1142,19 +1116,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -1162,19 +1134,19 @@
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>49</v>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -1182,17 +1154,12 @@
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>49</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -1200,17 +1167,17 @@
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>49</v>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -1218,19 +1185,12 @@
         <v>16</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -1240,10 +1200,15 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -1251,17 +1216,19 @@
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -1271,28 +1238,35 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -1300,19 +1274,17 @@
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -1323,14 +1295,14 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -1338,20 +1310,12 @@
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -1360,16 +1324,10 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s">
-        <v>43</v>
-      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
@@ -1378,16 +1336,10 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s">
-        <v>43</v>
-      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
@@ -1406,36 +1358,18 @@
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_チーム名_持ちつ持たれつ.xlsx
+++ b/doc/04_機能一覧_チーム名_持ちつ持たれつ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8BA6CC-0114-4D79-A542-0B2C5001A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A12EB9-B35C-4613-8103-53349C585AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="585" windowWidth="15645" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>java</t>
-  </si>
-  <si>
-    <t>java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,15 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール管理</t>
-  </si>
-  <si>
-    <t>スケジュール表示</t>
-  </si>
-  <si>
-    <t>直近2日分のスケジュールを表示する</t>
-  </si>
-  <si>
     <t>Java ・ SQL</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
   </si>
   <si>
     <t>月ごとにカレンダーを表示する</t>
-  </si>
-  <si>
-    <t>スケジュール登録</t>
   </si>
   <si>
     <t>指定した日付のスケジュールを登録する</t>
@@ -268,57 +253,195 @@
     <t>(※可能なら音声設定もできる)</t>
   </si>
   <si>
+    <t>過去のリストデータを一覧表示する。</t>
+  </si>
+  <si>
+    <t>チェック完了の出来ていない日については追ってチェックできる。</t>
+  </si>
+  <si>
+    <t>ユーザ情報変更</t>
+  </si>
+  <si>
+    <t>達成の可否</t>
+  </si>
+  <si>
+    <t>達成の可否をボタンで押す</t>
+  </si>
+  <si>
+    <t>達成表示機能</t>
+  </si>
+  <si>
+    <t>推しの写真の表示</t>
+  </si>
+  <si>
+    <t>コメントの表示</t>
+  </si>
+  <si>
+    <t>SU0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SU0002</t>
+  </si>
+  <si>
+    <t>LI0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LI0002</t>
+  </si>
+  <si>
+    <t>LI0003</t>
+  </si>
+  <si>
+    <t>HM0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM0002</t>
+  </si>
+  <si>
+    <t>LG0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク表示機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成したカスタムセット項目にコメントを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID・パスワードを入力し、照合した後、Mail・PWを変更する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推しアイコン設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録されているタスクの表示(リスト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクのスケジュールを表示する(達成/未達成)</t>
+    <rPh sb="16" eb="18">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ミタッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0002</t>
+  </si>
+  <si>
+    <t>CL0003</t>
+  </si>
+  <si>
+    <t>MP0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>過去のリストチェック機能</t>
-  </si>
-  <si>
-    <t>過去のリストデータを一覧表示する。</t>
-  </si>
-  <si>
-    <t>チェック完了の出来ていない日については追ってチェックできる。</t>
-  </si>
-  <si>
-    <t>ユーザ情報変更</t>
-  </si>
-  <si>
-    <t>予定表示機能</t>
-  </si>
-  <si>
-    <t>予定の表示</t>
-  </si>
-  <si>
-    <t>データベースに登録されている予定のランダム表示(リスト)</t>
-  </si>
-  <si>
-    <t>達成の可否</t>
-  </si>
-  <si>
-    <t>達成の可否をボタンで押す</t>
-  </si>
-  <si>
-    <t>達成表示機能</t>
-  </si>
-  <si>
-    <t>推しの写真の表示</t>
-  </si>
-  <si>
-    <t>コメントの表示</t>
-  </si>
-  <si>
-    <t>報奨表示</t>
-  </si>
-  <si>
-    <t>ID・パスワードを入力し、照合した後、氏名・パスワードを変更する</t>
-  </si>
-  <si>
-    <t>推し設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トロフィーの表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>達成した予定項目にコメントを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美Day設定</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美Dayをリマインド</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP0003</t>
+  </si>
+  <si>
+    <t>TL0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL0002</t>
+  </si>
+  <si>
+    <t>TI0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TI0002</t>
+  </si>
+  <si>
+    <t>ログイン/新規登録</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トロフィー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java・SQL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -410,13 +533,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +609,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,20 +963,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -809,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -824,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -881,7 +1059,9 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
@@ -891,19 +1071,21 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
@@ -913,19 +1095,21 @@
       <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
@@ -935,19 +1119,21 @@
       <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
@@ -957,19 +1143,21 @@
       <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
@@ -979,19 +1167,23 @@
       <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1001,19 +1193,21 @@
       <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1023,19 +1217,21 @@
       <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
@@ -1045,338 +1241,314 @@
       <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="H19" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" t="s">
-        <v>37</v>
+      <c r="F24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="2">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
